--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
-  <si>
-    <t>Questions by Love Babbar:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+  <si>
+    <t xml:space="preserve">Questions </t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
@@ -31,25 +31,28 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
-  </si>
-  <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
     <t>Find the Union and Intersection of the two sorted arrays.</t>
@@ -1416,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1493,6 +1496,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1524,10 +1534,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1540,14 +1551,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,9 +1572,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1597,44 +1638,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1646,6 +1649,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,108 +1810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1813,19 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,30 +1853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,15 +1892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1936,149 +1906,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2429,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2491,7 +2494,7 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2502,7 +2505,7 @@
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2513,11 +2516,11 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
@@ -2525,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
@@ -2536,10 +2539,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
@@ -2547,10 +2550,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
@@ -2558,10 +2561,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
@@ -2569,10 +2572,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
@@ -2580,10 +2583,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
@@ -2591,10 +2594,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
@@ -2602,10 +2605,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
@@ -2613,10 +2616,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
@@ -2624,10 +2627,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
@@ -2635,10 +2638,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
@@ -2646,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2657,10 +2660,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2668,10 +2671,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2679,10 +2682,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2690,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2701,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2712,10 +2715,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2723,10 +2726,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2734,10 +2737,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2745,10 +2748,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2756,10 +2759,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2767,10 +2770,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2778,10 +2781,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2789,10 +2792,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2800,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2811,10 +2814,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2822,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2833,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2844,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2855,133 +2858,133 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
       <c r="A47" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -2991,475 +2994,475 @@
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3469,398 +3472,398 @@
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3869,398 +3872,398 @@
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
       <c r="A142" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
       <c r="A144" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
       <c r="A145" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
       <c r="A146" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
       <c r="A147" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
       <c r="A149" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
       <c r="A150" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
       <c r="A151" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
       <c r="A153" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
       <c r="A154" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
       <c r="A156" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
       <c r="A157" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
       <c r="A158" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
       <c r="A159" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
       <c r="A160" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
       <c r="A163" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
       <c r="A164" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
       <c r="A165" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
       <c r="A166" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
       <c r="A167" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
       <c r="A168" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
       <c r="A169" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
       <c r="A171" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
       <c r="A172" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
       <c r="A173" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
       <c r="A174" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4269,387 +4272,387 @@
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4664,244 +4667,244 @@
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4914,387 +4917,387 @@
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5307,211 +5310,211 @@
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5524,420 +5527,420 @@
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5950,200 +5953,200 @@
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6156,486 +6159,486 @@
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6648,68 +6651,68 @@
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6722,662 +6725,662 @@
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7391,112 +7394,112 @@
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t xml:space="preserve">Questions </t>
   </si>
@@ -31,15 +31,15 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
@@ -52,19 +52,19 @@
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,19 +1503,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1564,16 +1555,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,10 +1585,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,15 +1617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,9 +1632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,6 +1763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,19 +1792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,114 +1832,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1839,6 +1839,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1861,7 +1915,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,60 +1931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1942,104 +1942,110 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2048,40 +2054,34 @@
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2464,417 +2464,415 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" ht="21" spans="1:3">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2885,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2896,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2907,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2918,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2929,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2940,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2951,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2962,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2973,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2984,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3000,7 +2998,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3011,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3022,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3033,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3044,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3055,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3066,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3077,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3088,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3099,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3110,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3121,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3132,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3143,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3154,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3165,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3176,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3187,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3198,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3209,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3220,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3231,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3242,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3253,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3264,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3275,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3286,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3297,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3308,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3319,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3330,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3341,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3352,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3363,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3374,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3385,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3396,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3407,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3418,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3429,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3440,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3451,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3462,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3478,7 +3476,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3489,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3500,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3511,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3522,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3533,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3544,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3555,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3566,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3577,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3588,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3599,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3610,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3621,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3632,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3643,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3654,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3665,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3676,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3687,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3698,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3709,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3720,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3731,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3742,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3753,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3764,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3775,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3786,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3797,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3808,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3819,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3830,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3841,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3852,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3863,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3878,7 +3876,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3889,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3900,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3911,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3922,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3933,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3944,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3955,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3966,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3977,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3988,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -3999,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4010,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4021,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4032,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4043,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4054,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4065,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4076,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4087,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4098,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4109,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4120,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4131,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4142,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4153,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4164,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4175,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4186,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4197,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4208,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4219,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4230,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4241,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4252,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4263,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4278,7 +4276,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4289,7 +4287,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4300,7 +4298,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4311,7 +4309,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4322,7 +4320,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4333,7 +4331,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4344,7 +4342,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4355,7 +4353,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
@@ -4366,7 +4364,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4377,7 +4375,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4388,7 +4386,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
@@ -4399,7 +4397,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
@@ -4410,7 +4408,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
@@ -4421,7 +4419,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
@@ -4432,7 +4430,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -4443,7 +4441,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4454,7 +4452,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4465,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4476,7 +4474,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
@@ -4487,7 +4485,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
@@ -4498,7 +4496,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4509,7 +4507,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4520,7 +4518,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4531,7 +4529,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4542,7 +4540,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4553,7 +4551,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4564,7 +4562,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4575,7 +4573,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4586,7 +4584,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4597,7 +4595,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4608,7 +4606,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4619,7 +4617,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4630,7 +4628,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4641,7 +4639,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4652,7 +4650,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4673,7 +4671,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4684,7 +4682,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4695,7 +4693,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4706,7 +4704,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4717,7 +4715,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4728,7 +4726,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4739,7 +4737,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4750,7 +4748,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4761,7 +4759,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4772,7 +4770,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4783,7 +4781,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4794,7 +4792,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4805,7 +4803,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4816,7 +4814,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4827,7 +4825,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4838,7 +4836,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4849,7 +4847,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4860,7 +4858,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4871,7 +4869,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4882,7 +4880,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4893,7 +4891,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4904,7 +4902,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4923,7 +4921,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4934,7 +4932,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4945,7 +4943,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4956,7 +4954,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4967,7 +4965,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
@@ -4978,7 +4976,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4989,7 +4987,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5000,7 +4998,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5011,7 +5009,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5022,7 +5020,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5033,7 +5031,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5044,7 +5042,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5055,7 +5053,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5066,7 +5064,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5077,7 +5075,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5088,7 +5086,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5099,7 +5097,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5110,7 +5108,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5121,7 +5119,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5132,7 +5130,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5143,7 +5141,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5154,7 +5152,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5165,7 +5163,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5176,7 +5174,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5187,7 +5185,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5198,7 +5196,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5209,7 +5207,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5220,7 +5218,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5231,7 +5229,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5242,7 +5240,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5253,7 +5251,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5264,7 +5262,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5275,7 +5273,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5286,7 +5284,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5297,7 +5295,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5316,7 +5314,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5327,7 +5325,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5338,7 +5336,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5349,7 +5347,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5360,7 +5358,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5371,7 +5369,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5382,7 +5380,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5393,7 +5391,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5404,7 +5402,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5415,7 +5413,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5426,7 +5424,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5437,7 +5435,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5448,7 +5446,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5459,7 +5457,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5470,7 +5468,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5481,7 +5479,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5492,7 +5490,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5503,7 +5501,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5514,7 +5512,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5533,7 +5531,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5544,7 +5542,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5555,7 +5553,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5566,7 +5564,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5577,7 +5575,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5588,7 +5586,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5599,7 +5597,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5610,7 +5608,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5621,7 +5619,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5632,7 +5630,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5643,7 +5641,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5654,7 +5652,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5665,7 +5663,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5676,7 +5674,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5687,7 +5685,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5698,7 +5696,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5709,7 +5707,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5720,7 +5718,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5731,7 +5729,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5742,7 +5740,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5753,7 +5751,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5764,7 +5762,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5775,7 +5773,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5786,7 +5784,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5797,7 +5795,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5808,7 +5806,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5819,7 +5817,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5830,7 +5828,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5841,7 +5839,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5852,7 +5850,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5863,7 +5861,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5874,7 +5872,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5885,7 +5883,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5896,7 +5894,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5907,7 +5905,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5918,7 +5916,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5929,7 +5927,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5940,7 +5938,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5959,7 +5957,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5970,7 +5968,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5981,7 +5979,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -5992,7 +5990,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6003,7 +6001,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6014,7 +6012,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6025,7 +6023,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6036,7 +6034,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6047,7 +6045,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6058,7 +6056,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6069,7 +6067,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6080,7 +6078,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6091,7 +6089,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6102,7 +6100,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6113,7 +6111,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6124,7 +6122,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6135,7 +6133,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6146,7 +6144,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6165,7 +6163,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6176,7 +6174,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
@@ -6187,7 +6185,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
@@ -6198,7 +6196,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
@@ -6209,7 +6207,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
@@ -6220,7 +6218,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
@@ -6231,7 +6229,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
@@ -6242,7 +6240,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6253,7 +6251,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6264,7 +6262,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6275,7 +6273,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6286,7 +6284,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6297,7 +6295,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6308,7 +6306,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6319,7 +6317,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6330,7 +6328,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6341,7 +6339,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6352,7 +6350,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6363,7 +6361,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6374,7 +6372,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6385,7 +6383,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6396,7 +6394,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6407,7 +6405,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6418,7 +6416,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6429,7 +6427,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6440,7 +6438,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6451,7 +6449,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6462,7 +6460,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6473,7 +6471,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6484,7 +6482,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6495,7 +6493,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6506,7 +6504,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6517,7 +6515,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6528,7 +6526,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6539,7 +6537,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6550,7 +6548,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6561,7 +6559,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6572,7 +6570,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6583,7 +6581,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6594,7 +6592,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6605,7 +6603,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6616,7 +6614,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6627,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6638,7 +6636,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6657,7 +6655,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6668,7 +6666,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6679,7 +6677,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6690,7 +6688,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6701,7 +6699,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6712,7 +6710,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6731,7 +6729,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6742,7 +6740,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -6753,7 +6751,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -6764,7 +6762,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6775,7 +6773,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -6786,7 +6784,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -6797,7 +6795,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -6808,7 +6806,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6819,7 +6817,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6830,7 +6828,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6841,7 +6839,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6852,7 +6850,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6863,7 +6861,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6874,7 +6872,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6885,7 +6883,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6896,7 +6894,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6907,7 +6905,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6918,7 +6916,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6929,7 +6927,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6940,7 +6938,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6951,7 +6949,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6962,7 +6960,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6973,7 +6971,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6984,7 +6982,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -6995,7 +6993,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7006,7 +7004,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7017,7 +7015,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7028,7 +7026,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7039,7 +7037,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7050,7 +7048,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7061,7 +7059,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7072,7 +7070,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7083,7 +7081,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7094,7 +7092,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7105,7 +7103,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7116,7 +7114,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7127,7 +7125,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7138,7 +7136,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7149,7 +7147,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7160,7 +7158,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7171,7 +7169,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7182,7 +7180,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7193,7 +7191,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7204,7 +7202,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7215,7 +7213,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7226,7 +7224,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7237,7 +7235,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7248,7 +7246,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7259,7 +7257,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7270,7 +7268,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7281,7 +7279,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7292,7 +7290,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7303,7 +7301,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7314,7 +7312,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7325,7 +7323,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7336,7 +7334,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7347,7 +7345,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7358,7 +7356,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7369,7 +7367,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7380,7 +7378,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7400,7 +7398,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7411,7 +7409,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7422,7 +7420,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7433,7 +7431,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7444,7 +7442,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7455,7 +7453,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7466,7 +7464,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7477,7 +7475,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7488,7 +7486,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7499,7 +7497,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -64,22 +64,22 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
   </si>
   <si>
     <t>Next Permutation</t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1511,7 +1511,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1542,14 +1542,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,7 +1563,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,25 +1609,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1618,24 +1632,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1660,7 +1660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,19 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,13 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,43 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,19 +1774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,13 +1786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,6 +1817,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,6 +1857,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1881,6 +1890,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1892,6 +1910,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,45 +1939,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,107 +1954,86 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2066,22 +2042,46 @@
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2562,40 +2562,40 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>18</v>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -2614,10 +2614,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
@@ -2639,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
@@ -2650,7 +2650,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2859,20 +2859,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -2998,7 +2998,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3876,7 +3876,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4276,7 +4276,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4287,7 +4287,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4298,7 +4298,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4309,7 +4309,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4320,7 +4320,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4342,7 +4342,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4353,7 +4353,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
@@ -4364,7 +4364,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4375,7 +4375,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4386,7 +4386,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
@@ -4397,7 +4397,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
@@ -4408,7 +4408,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
@@ -4419,7 +4419,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
@@ -4430,7 +4430,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4452,7 +4452,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4474,7 +4474,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
@@ -4485,7 +4485,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
@@ -4496,7 +4496,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4671,7 +4671,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4921,7 +4921,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4932,7 +4932,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
@@ -4976,7 +4976,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5314,7 +5314,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5531,7 +5531,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5542,7 +5542,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5957,7 +5957,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6163,7 +6163,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6655,7 +6655,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6666,7 +6666,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6677,7 +6677,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6688,7 +6688,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6710,7 +6710,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6729,7 +6729,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6740,7 +6740,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -6751,7 +6751,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -6762,7 +6762,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6773,7 +6773,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -6784,7 +6784,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -6806,7 +6806,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6817,7 +6817,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6839,7 +6839,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6883,7 +6883,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -6993,7 +6993,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7026,7 +7026,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7202,7 +7202,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7213,7 +7213,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7224,7 +7224,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7268,7 +7268,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7290,7 +7290,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7398,7 +7398,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -79,19 +79,19 @@
     <t>Merge Intervals</t>
   </si>
   <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
     <t>find common elements In 3 sorted arrays</t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1504,7 +1504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,6 +1519,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1541,72 +1594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1615,8 +1602,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1631,11 +1625,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1648,13 +1648,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,37 +1732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,91 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,6 +1778,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1839,63 +1839,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1925,6 +1868,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1939,149 +1915,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2602,7 +2602,7 @@
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2613,55 +2613,55 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>22</v>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>24</v>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2859,20 +2859,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -2998,7 +2998,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3075,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3876,7 +3876,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4276,7 +4276,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4287,7 +4287,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4298,7 +4298,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4309,7 +4309,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4320,7 +4320,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4342,7 +4342,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4353,7 +4353,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
@@ -4364,7 +4364,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4375,7 +4375,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4386,7 +4386,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
@@ -4397,7 +4397,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
@@ -4408,7 +4408,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
@@ -4419,7 +4419,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
@@ -4430,7 +4430,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4452,7 +4452,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4463,7 +4463,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4474,7 +4474,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
@@ -4485,7 +4485,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
@@ -4496,7 +4496,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4507,7 +4507,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4529,7 +4529,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4562,7 +4562,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4573,7 +4573,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4584,7 +4584,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4595,7 +4595,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4606,7 +4606,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4628,7 +4628,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4639,7 +4639,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4650,7 +4650,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4671,7 +4671,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -4759,7 +4759,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4869,7 +4869,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4880,7 +4880,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -4902,7 +4902,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4921,7 +4921,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4932,7 +4932,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
@@ -4976,7 +4976,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5314,7 +5314,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5531,7 +5531,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5542,7 +5542,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -5957,7 +5957,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6163,7 +6163,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6655,7 +6655,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6666,7 +6666,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6677,7 +6677,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6688,7 +6688,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6710,7 +6710,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6729,7 +6729,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6740,7 +6740,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -6751,7 +6751,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -6762,7 +6762,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6773,7 +6773,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -6784,7 +6784,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -6806,7 +6806,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6817,7 +6817,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6839,7 +6839,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6883,7 +6883,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -6993,7 +6993,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7026,7 +7026,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7037,7 +7037,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7202,7 +7202,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7213,7 +7213,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7224,7 +7224,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7268,7 +7268,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7290,7 +7290,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7398,7 +7398,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="15165" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,32 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="462">
   <si>
     <t xml:space="preserve">Questions </t>
   </si>
   <si>
-    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
-  </si>
-  <si>
     <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
   <si>
-    <t xml:space="preserve">Done [yes or no] </t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
     <t>Reverse the array</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>&lt;-&gt;</t>
   </si>
   <si>
     <t>find common elements In 3 sorted arrays</t>
@@ -1419,12 +1407,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1442,7 +1430,7 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1499,6 +1487,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1510,8 +1543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,15 +1560,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,21 +1584,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1572,38 +1599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,22 +1607,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1644,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,67 +1806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,103 +1818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,41 +1835,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1888,15 +1849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,7 +1872,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,149 +1906,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2090,7 +2086,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,13 +2097,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2119,12 +2115,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2431,8 +2427,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2448,542 +2444,442 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="4" ht="21" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="21" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="21" spans="1:3">
       <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="21" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="21" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
-      <c r="C42" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" ht="21" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" ht="21" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" ht="21" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" ht="21" spans="1:3">
       <c r="A47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" ht="21" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" ht="21" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" ht="21" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" ht="21" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C53" s="5"/>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
@@ -2992,476 +2888,390 @@
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C98" s="5"/>
     </row>
     <row r="100" ht="21" spans="1:3">
       <c r="A100" s="10"/>
@@ -3470,399 +3280,327 @@
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C136" s="5"/>
     </row>
     <row r="138" ht="21" spans="2:3">
       <c r="B138" s="9"/>
@@ -3870,399 +3608,327 @@
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" ht="21" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" ht="21" spans="1:3">
       <c r="A142" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" ht="21" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" ht="21" spans="1:3">
       <c r="A144" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" ht="21" spans="1:3">
       <c r="A145" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" ht="21" spans="1:3">
       <c r="A146" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" ht="21" spans="1:3">
       <c r="A147" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" ht="21" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" ht="21" spans="1:3">
       <c r="A149" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" ht="21" spans="1:3">
       <c r="A150" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" ht="21" spans="1:3">
       <c r="A151" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" ht="21" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" ht="21" spans="1:3">
       <c r="A153" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" ht="21" spans="1:3">
       <c r="A154" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" ht="21" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" ht="21" spans="1:3">
       <c r="A156" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" ht="21" spans="1:3">
       <c r="A157" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" ht="21" spans="1:3">
       <c r="A158" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" ht="21" spans="1:3">
       <c r="A159" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" ht="21" spans="1:3">
       <c r="A160" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" ht="21" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" ht="21" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" ht="21" spans="1:3">
       <c r="A163" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" ht="21" spans="1:3">
       <c r="A164" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" ht="21" spans="1:3">
       <c r="A165" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" ht="21" spans="1:3">
       <c r="A166" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" ht="21" spans="1:3">
       <c r="A167" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" ht="21" spans="1:3">
       <c r="A168" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" ht="21" spans="1:3">
       <c r="A169" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" ht="21" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" ht="21" spans="1:3">
       <c r="A171" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" ht="21" spans="1:3">
       <c r="A172" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" ht="21" spans="1:3">
       <c r="A173" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" ht="21" spans="1:3">
       <c r="A174" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C174" s="5"/>
     </row>
     <row r="176" ht="21" spans="2:3">
       <c r="B176" s="9"/>
@@ -4270,388 +3936,318 @@
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C202" s="5"/>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C203" s="5"/>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C204" s="5"/>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C205" s="5"/>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C206" s="5"/>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C207" s="5"/>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C208" s="5"/>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C209" s="5"/>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C210" s="5"/>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C211" s="5"/>
     </row>
     <row r="212" ht="21" spans="1:3">
       <c r="A212" s="10"/>
@@ -4665,245 +4261,201 @@
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C216" s="5"/>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B217" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" ht="21" spans="2:3">
       <c r="B236" s="9"/>
@@ -4915,388 +4467,318 @@
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B241" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" ht="21" spans="2:3">
       <c r="B273" s="9"/>
@@ -5308,212 +4790,174 @@
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" ht="21" spans="2:3">
       <c r="B294" s="9"/>
@@ -5525,421 +4969,345 @@
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B299" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" ht="21" spans="2:3">
       <c r="B334" s="9"/>
@@ -5951,201 +5319,165 @@
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B339" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" ht="21" spans="2:3">
       <c r="B354" s="9"/>
@@ -6157,487 +5489,399 @@
     </row>
     <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B359" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" ht="21" spans="2:3">
       <c r="B400" s="9"/>
@@ -6649,69 +5893,57 @@
     </row>
     <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B406" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C406" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" ht="21" spans="2:3">
       <c r="B408" s="9"/>
@@ -6723,663 +5955,543 @@
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C410" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C412" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B413" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C413" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C414" s="5"/>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C416" s="5"/>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C417" s="5"/>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C418" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C418" s="5"/>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C419" s="5"/>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C420" s="5"/>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C421" s="5"/>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C422" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C422" s="5"/>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C423" s="5"/>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C424" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C424" s="5"/>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C425" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C425" s="5"/>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C426" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C426" s="5"/>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C427" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C427" s="5"/>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C428" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C428" s="5"/>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C429" s="5"/>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C430" s="5"/>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C431" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C431" s="5"/>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C432" s="5"/>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C433" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C434" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C434" s="5"/>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C435" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C435" s="5"/>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C436" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C436" s="5"/>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C437" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C437" s="5"/>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C438" s="5"/>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C439" s="5"/>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C440" s="5"/>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C441" s="5"/>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C442" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C442" s="5"/>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C443" s="5"/>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C444" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C444" s="5"/>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C445" s="5"/>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C446" s="5"/>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C447" s="5"/>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C448" s="5"/>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C449" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C449" s="5"/>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C450" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C450" s="5"/>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C451" s="5"/>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C452" s="5"/>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C453" s="5"/>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C454" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C454" s="5"/>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C455" s="5"/>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C456" s="5"/>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C457" s="5"/>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C458" s="5"/>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C459" s="5"/>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C460" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C460" s="5"/>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C462" s="5"/>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C463" s="5"/>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C464" s="5"/>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C465" s="5"/>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C466" s="5"/>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C467" s="5"/>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C468" s="5"/>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C469" s="5"/>
     </row>
     <row r="470" ht="21" spans="2:3">
       <c r="B470" s="9"/>
@@ -7392,113 +6504,93 @@
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C472" s="5"/>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C473" s="5"/>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C474" s="5"/>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B475" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C475" s="5"/>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C476" s="5"/>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C477" s="5"/>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C478" s="5"/>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C479" s="5"/>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C480" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C480" s="5"/>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C481" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7947,9 +7039,9 @@
     <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
     <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
     <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15165" windowHeight="8460"/>
+    <workbookView windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1407,10 +1407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1491,17 +1491,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,23 +1522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1567,9 +1561,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1577,6 +1577,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,11 +1598,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,14 +1614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,19 +1644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,13 +1716,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,13 +1770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +1806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,43 +1818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,21 +1849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,8 +1895,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1919,8 +1904,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1938,146 +1938,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2427,8 +2427,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
